--- a/examples/example XYTable_LookUp files/Spreadsheet Tool to Assemble XYTable_LookUp.xlsx
+++ b/examples/example XYTable_LookUp files/Spreadsheet Tool to Assemble XYTable_LookUp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arduino\libraries\LEDMatrix_21_30\docs\example XYTable_LookUp files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Arduino\libraries\LEDMatrix_22\examples\example XYTable_LookUp files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>/* XYTable_yx.h</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>This table is layed out in X=horizontal in each row and Y=vertical rows.</t>
   </si>
@@ -36,16 +33,7 @@
     <t>TILE#</t>
   </si>
   <si>
-    <t>8x8 ZIGZAG tiles are very popular!</t>
-  </si>
-  <si>
-    <t>You can "string" these together to build large matrix panels quickly</t>
-  </si>
-  <si>
     <t>Each tile is 8x8 leds in a ZIGZAG pattern (each row reverses direction).</t>
-  </si>
-  <si>
-    <t>1. Copy each 8x8 tile inside the gold lines to a new sheet in numbered order.</t>
   </si>
   <si>
     <t>2. Paste each tile in the physical order of your martix panel.</t>
@@ -60,9 +48,6 @@
     <t>3. for example to make a 16x16 panel of 4 8x8 tiles:</t>
   </si>
   <si>
-    <t>6. Enter the value for "X width goes here" at the left</t>
-  </si>
-  <si>
     <t>7. Copy the header at the left to the new sheet.</t>
   </si>
   <si>
@@ -72,13 +57,28 @@
     <t>9. Open in a text editor</t>
   </si>
   <si>
-    <t>10. Add a comma to the end of each line EXCEPT THE LAST LINE OF NUMBERS (VERY IMPORTANT)</t>
+    <t>Directions to create a "C" array for your sketech:</t>
   </si>
   <si>
-    <t>11. Add   };    AFTER the last line to complete the array.</t>
+    <t xml:space="preserve"> Addressing is: XYTable[y][x] NOT "x,y"</t>
   </si>
   <si>
-    <t>Directions to create a "C" array for your sketech:</t>
+    <t>CREATE LARGER MATRIX PANELS FROM COMMERCIAL *X* TILES</t>
+  </si>
+  <si>
+    <t>1. Copy each 8x8 tile inside the gold lines to a NEW SPREADSHEET in numbered order.</t>
+  </si>
+  <si>
+    <t>DO  NOT INCLUDE THE BLANK (GOLD) COLUMNS OR ROWS .</t>
+  </si>
+  <si>
+    <t>Re-organize the panels to match your physical layout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a long strip of tiles it could be: </t>
+  </si>
+  <si>
+    <t>You can "string" these tiles together to build large matrix panels quickly</t>
   </si>
   <si>
     <r>
@@ -89,7 +89,7 @@
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -108,17 +108,94 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Addressing is: XYTable[y][x] NOT "x,y"</t>
+    <r>
+      <t>6. Enter the value for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X width goes here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" at the left</t>
+    </r>
   </si>
   <si>
-    <t>CREATE LARGER MATRIX PANELS FROM COMMERCIAL *X* TILES</t>
+    <r>
+      <t>10. Add a comma to the end of each line EXCEPT THE LAST LINE OF NUMBERS (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VERY IMPORTANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add   };    AFTER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the last line to complete the array.</t>
+    </r>
+  </si>
+  <si>
+    <t>/* XYTable_LookUp.h</t>
+  </si>
+  <si>
+    <t>EXAMPLE: 8x8 ZIGZAG  tiles. Tiles in progressive rows from upper-left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +365,30 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -488,12 +589,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -608,6 +709,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -653,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -666,6 +782,10 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -994,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH284"/>
+  <dimension ref="A1:BH287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,50 +1134,50 @@
     <col min="37" max="60" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="R1" s="10" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="R2" s="7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="R3" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="R4" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -1071,3541 +1191,3598 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="R5" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="R6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="7"/>
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="R7" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="R8" s="7"/>
-      <c r="S8" s="7">
+      <c r="S8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R10" s="7"/>
+      <c r="S10" s="12">
         <v>1</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T10" s="12">
         <v>2</v>
       </c>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="R9" s="7"/>
-      <c r="S9" s="7">
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R11" s="7"/>
+      <c r="S11" s="12">
         <v>3</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T11" s="12">
         <v>4</v>
       </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="R10" s="7" t="s">
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="AA12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:60" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:60" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:60" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+    </row>
+    <row r="20" spans="1:60" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:60" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:60" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="M22" s="3">
         <v>1</v>
       </c>
-      <c r="R12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="V22" s="3">
         <v>2</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="R16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:60" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="R17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:60" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:60" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="V19" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="3">
+      <c r="AE22" s="3">
         <v>3</v>
       </c>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="J20">
-        <v>64</v>
-      </c>
-      <c r="K20">
-        <v>65</v>
-      </c>
-      <c r="L20">
-        <v>66</v>
-      </c>
-      <c r="M20">
-        <v>67</v>
-      </c>
-      <c r="N20">
-        <v>68</v>
-      </c>
-      <c r="O20">
-        <v>69</v>
-      </c>
-      <c r="P20">
-        <v>70</v>
-      </c>
-      <c r="Q20">
-        <v>71</v>
-      </c>
-      <c r="S20">
-        <v>128</v>
-      </c>
-      <c r="T20">
-        <v>129</v>
-      </c>
-      <c r="U20">
-        <v>130</v>
-      </c>
-      <c r="V20">
-        <v>131</v>
-      </c>
-      <c r="W20">
-        <v>132</v>
-      </c>
-      <c r="X20">
-        <v>133</v>
-      </c>
-      <c r="Y20">
-        <v>134</v>
-      </c>
-      <c r="Z20">
-        <v>135</v>
-      </c>
-      <c r="AB20">
-        <v>192</v>
-      </c>
-      <c r="AC20">
-        <v>193</v>
-      </c>
-      <c r="AD20">
-        <v>194</v>
-      </c>
-      <c r="AE20">
-        <v>195</v>
-      </c>
-      <c r="AF20">
-        <v>196</v>
-      </c>
-      <c r="AG20">
-        <v>197</v>
-      </c>
-      <c r="AH20">
-        <v>198</v>
-      </c>
-      <c r="AI20">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>79</v>
-      </c>
-      <c r="K21">
-        <v>78</v>
-      </c>
-      <c r="L21">
-        <v>77</v>
-      </c>
-      <c r="M21">
-        <v>76</v>
-      </c>
-      <c r="N21">
-        <v>75</v>
-      </c>
-      <c r="O21">
-        <v>74</v>
-      </c>
-      <c r="P21">
-        <v>73</v>
-      </c>
-      <c r="Q21">
-        <v>72</v>
-      </c>
-      <c r="S21">
-        <v>143</v>
-      </c>
-      <c r="T21">
-        <v>142</v>
-      </c>
-      <c r="U21">
-        <v>141</v>
-      </c>
-      <c r="V21">
-        <v>140</v>
-      </c>
-      <c r="W21">
-        <v>139</v>
-      </c>
-      <c r="X21">
-        <v>138</v>
-      </c>
-      <c r="Y21">
-        <v>137</v>
-      </c>
-      <c r="Z21">
-        <v>136</v>
-      </c>
-      <c r="AB21">
-        <v>207</v>
-      </c>
-      <c r="AC21">
-        <v>206</v>
-      </c>
-      <c r="AD21">
-        <v>205</v>
-      </c>
-      <c r="AE21">
-        <v>204</v>
-      </c>
-      <c r="AF21">
-        <v>203</v>
-      </c>
-      <c r="AG21">
-        <v>202</v>
-      </c>
-      <c r="AH21">
-        <v>201</v>
-      </c>
-      <c r="AI21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>21</v>
-      </c>
-      <c r="G22">
-        <v>22</v>
-      </c>
-      <c r="H22">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>80</v>
-      </c>
-      <c r="K22">
-        <v>81</v>
-      </c>
-      <c r="L22">
-        <v>82</v>
-      </c>
-      <c r="M22">
-        <v>83</v>
-      </c>
-      <c r="N22">
-        <v>84</v>
-      </c>
-      <c r="O22">
-        <v>85</v>
-      </c>
-      <c r="P22">
-        <v>86</v>
-      </c>
-      <c r="Q22">
-        <v>87</v>
-      </c>
-      <c r="S22">
-        <v>144</v>
-      </c>
-      <c r="T22">
-        <v>145</v>
-      </c>
-      <c r="U22">
-        <v>146</v>
-      </c>
-      <c r="V22">
-        <v>147</v>
-      </c>
-      <c r="W22">
-        <v>148</v>
-      </c>
-      <c r="X22">
-        <v>149</v>
-      </c>
-      <c r="Y22">
-        <v>150</v>
-      </c>
-      <c r="Z22">
-        <v>151</v>
-      </c>
-      <c r="AB22">
-        <v>208</v>
-      </c>
-      <c r="AC22">
-        <v>209</v>
-      </c>
-      <c r="AD22">
-        <v>210</v>
-      </c>
-      <c r="AE22">
-        <v>211</v>
-      </c>
-      <c r="AF22">
-        <v>212</v>
-      </c>
-      <c r="AG22">
-        <v>213</v>
-      </c>
-      <c r="AH22">
-        <v>214</v>
-      </c>
-      <c r="AI22">
-        <v>215</v>
-      </c>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="L23">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M23">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="N23">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="O23">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="P23">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="Q23">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="S23">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="T23">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="U23">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="V23">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="W23">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="X23">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="Y23">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Z23">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="AB23">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AC23">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="AD23">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="AE23">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="AF23">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AG23">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="AH23">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="AI23">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J24">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="L24">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="M24">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O24">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="P24">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="Q24">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="S24">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="T24">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="U24">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="V24">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="W24">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="X24">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="Y24">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="Z24">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="AB24">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="AC24">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="AD24">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="AE24">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="AF24">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AG24">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="AH24">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AI24">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E25">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G25">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J25">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="L25">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M25">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="N25">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="O25">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="P25">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="Q25">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="S25">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="T25">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="U25">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="V25">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="W25">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="X25">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="Y25">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="Z25">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="AB25">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AC25">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="AD25">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="AE25">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="AF25">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="AG25">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="AH25">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="AI25">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G26">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J26">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="L26">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M26">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="N26">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="O26">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="P26">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="Q26">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="S26">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="T26">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="U26">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="V26">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="W26">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="X26">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="Y26">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="Z26">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="AB26">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AC26">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="AD26">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="AE26">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="AF26">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="AG26">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="AH26">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="AI26">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G27">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J27">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="L27">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="M27">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="N27">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="O27">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="P27">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="Q27">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="S27">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="T27">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="U27">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="V27">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="W27">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="X27">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="Y27">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="Z27">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AB27">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="AC27">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="AD27">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="AE27">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AF27">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="AG27">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="AH27">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="AI27">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:60" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="N28" s="3">
-        <v>5</v>
-      </c>
-      <c r="W28" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>7</v>
-      </c>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
-      <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-      <c r="BF28" s="6"/>
-      <c r="BG28" s="6"/>
-      <c r="BH28" s="6"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>111</v>
+      </c>
+      <c r="K28">
+        <v>110</v>
+      </c>
+      <c r="L28">
+        <v>109</v>
+      </c>
+      <c r="M28">
+        <v>108</v>
+      </c>
+      <c r="N28">
+        <v>107</v>
+      </c>
+      <c r="O28">
+        <v>106</v>
+      </c>
+      <c r="P28">
+        <v>105</v>
+      </c>
+      <c r="Q28">
+        <v>104</v>
+      </c>
+      <c r="S28">
+        <v>175</v>
+      </c>
+      <c r="T28">
+        <v>174</v>
+      </c>
+      <c r="U28">
+        <v>173</v>
+      </c>
+      <c r="V28">
+        <v>172</v>
+      </c>
+      <c r="W28">
+        <v>171</v>
+      </c>
+      <c r="X28">
+        <v>170</v>
+      </c>
+      <c r="Y28">
+        <v>169</v>
+      </c>
+      <c r="Z28">
+        <v>168</v>
+      </c>
+      <c r="AB28">
+        <v>239</v>
+      </c>
+      <c r="AC28">
+        <v>238</v>
+      </c>
+      <c r="AD28">
+        <v>237</v>
+      </c>
+      <c r="AE28">
+        <v>236</v>
+      </c>
+      <c r="AF28">
+        <v>235</v>
+      </c>
+      <c r="AG28">
+        <v>234</v>
+      </c>
+      <c r="AH28">
+        <v>233</v>
+      </c>
+      <c r="AI28">
+        <v>232</v>
+      </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="C29">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="E29">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="F29">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="G29">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="H29">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="J29">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="L29">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="M29">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="N29">
-        <v>324</v>
+        <v>116</v>
       </c>
       <c r="O29">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="P29">
-        <v>326</v>
+        <v>118</v>
       </c>
       <c r="Q29">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="S29">
-        <v>384</v>
+        <v>176</v>
       </c>
       <c r="T29">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="U29">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="V29">
-        <v>387</v>
+        <v>179</v>
       </c>
       <c r="W29">
-        <v>388</v>
+        <v>180</v>
       </c>
       <c r="X29">
-        <v>389</v>
+        <v>181</v>
       </c>
       <c r="Y29">
-        <v>390</v>
+        <v>182</v>
       </c>
       <c r="Z29">
-        <v>391</v>
+        <v>183</v>
       </c>
       <c r="AB29">
-        <v>448</v>
+        <v>240</v>
       </c>
       <c r="AC29">
-        <v>449</v>
+        <v>241</v>
       </c>
       <c r="AD29">
-        <v>450</v>
+        <v>242</v>
       </c>
       <c r="AE29">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="AF29">
-        <v>452</v>
+        <v>244</v>
       </c>
       <c r="AG29">
-        <v>453</v>
+        <v>245</v>
       </c>
       <c r="AH29">
-        <v>454</v>
+        <v>246</v>
       </c>
       <c r="AI29">
-        <v>455</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="B30">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="C30">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="D30">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c r="F30">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="G30">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="H30">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="J30">
-        <v>335</v>
+        <v>127</v>
       </c>
       <c r="K30">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="L30">
-        <v>333</v>
+        <v>125</v>
       </c>
       <c r="M30">
-        <v>332</v>
+        <v>124</v>
       </c>
       <c r="N30">
-        <v>331</v>
+        <v>123</v>
       </c>
       <c r="O30">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="P30">
-        <v>329</v>
+        <v>121</v>
       </c>
       <c r="Q30">
-        <v>328</v>
+        <v>120</v>
       </c>
       <c r="S30">
-        <v>399</v>
+        <v>191</v>
       </c>
       <c r="T30">
-        <v>398</v>
+        <v>190</v>
       </c>
       <c r="U30">
-        <v>397</v>
+        <v>189</v>
       </c>
       <c r="V30">
-        <v>396</v>
+        <v>188</v>
       </c>
       <c r="W30">
-        <v>395</v>
+        <v>187</v>
       </c>
       <c r="X30">
-        <v>394</v>
+        <v>186</v>
       </c>
       <c r="Y30">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="Z30">
-        <v>392</v>
+        <v>184</v>
       </c>
       <c r="AB30">
-        <v>463</v>
+        <v>255</v>
       </c>
       <c r="AC30">
-        <v>462</v>
+        <v>254</v>
       </c>
       <c r="AD30">
-        <v>461</v>
+        <v>253</v>
       </c>
       <c r="AE30">
-        <v>460</v>
+        <v>252</v>
       </c>
       <c r="AF30">
-        <v>459</v>
+        <v>251</v>
       </c>
       <c r="AG30">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="AH30">
-        <v>457</v>
+        <v>249</v>
       </c>
       <c r="AI30">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>272</v>
-      </c>
-      <c r="B31">
-        <v>273</v>
-      </c>
-      <c r="C31">
-        <v>274</v>
-      </c>
-      <c r="D31">
-        <v>275</v>
-      </c>
-      <c r="E31">
-        <v>276</v>
-      </c>
-      <c r="F31">
-        <v>277</v>
-      </c>
-      <c r="G31">
-        <v>278</v>
-      </c>
-      <c r="H31">
-        <v>279</v>
-      </c>
-      <c r="J31">
-        <v>336</v>
-      </c>
-      <c r="K31">
-        <v>337</v>
-      </c>
-      <c r="L31">
-        <v>338</v>
-      </c>
-      <c r="M31">
-        <v>339</v>
-      </c>
-      <c r="N31">
-        <v>340</v>
-      </c>
-      <c r="O31">
-        <v>341</v>
-      </c>
-      <c r="P31">
-        <v>342</v>
-      </c>
-      <c r="Q31">
-        <v>343</v>
-      </c>
-      <c r="S31">
-        <v>400</v>
-      </c>
-      <c r="T31">
-        <v>401</v>
-      </c>
-      <c r="U31">
-        <v>402</v>
-      </c>
-      <c r="V31">
-        <v>403</v>
-      </c>
-      <c r="W31">
-        <v>404</v>
-      </c>
-      <c r="X31">
-        <v>405</v>
-      </c>
-      <c r="Y31">
-        <v>406</v>
-      </c>
-      <c r="Z31">
-        <v>407</v>
-      </c>
-      <c r="AB31">
-        <v>464</v>
-      </c>
-      <c r="AC31">
-        <v>465</v>
-      </c>
-      <c r="AD31">
-        <v>466</v>
-      </c>
-      <c r="AE31">
-        <v>467</v>
-      </c>
-      <c r="AF31">
-        <v>468</v>
-      </c>
-      <c r="AG31">
-        <v>469</v>
-      </c>
-      <c r="AH31">
-        <v>470</v>
-      </c>
-      <c r="AI31">
-        <v>471</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="N31" s="3">
+        <v>5</v>
+      </c>
+      <c r="W31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>7</v>
+      </c>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B32">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C32">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D32">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="E32">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="F32">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G32">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="H32">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="J32">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="K32">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="L32">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="M32">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="N32">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="O32">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="P32">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="Q32">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="S32">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="T32">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="U32">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="V32">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="W32">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="X32">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="Y32">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="Z32">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="AB32">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="AC32">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="AD32">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="AE32">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="AF32">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AG32">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="AH32">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="AI32">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B33">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C33">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D33">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="E33">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="F33">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="G33">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="H33">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="J33">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="K33">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="L33">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="M33">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="N33">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="O33">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="P33">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="Q33">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="S33">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="T33">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="U33">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="V33">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="W33">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="X33">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="Y33">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="Z33">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="AB33">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="AC33">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="AD33">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="AE33">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="AF33">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="AG33">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="AH33">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="AI33">
-        <v>487</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B34">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C34">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D34">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="E34">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F34">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="G34">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="H34">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="J34">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K34">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="L34">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="M34">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="N34">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="O34">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="P34">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="Q34">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="S34">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="T34">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="U34">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="V34">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="W34">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="X34">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="Y34">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="Z34">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="AB34">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="AC34">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="AD34">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="AE34">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="AF34">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="AG34">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="AH34">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="AI34">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B35">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C35">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="D35">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E35">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="F35">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="G35">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="H35">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="J35">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="K35">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="L35">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="M35">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="N35">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="O35">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="P35">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="Q35">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="S35">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="T35">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="U35">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="V35">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="W35">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="X35">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="Y35">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="Z35">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="AB35">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="AC35">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="AD35">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="AE35">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="AF35">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="AG35">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="AH35">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="AI35">
-        <v>503</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="B36">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="C36">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="D36">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="E36">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="F36">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="G36">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H36">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J36">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="K36">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="L36">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="M36">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="N36">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="O36">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="P36">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="Q36">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="S36">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="T36">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="U36">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="V36">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="W36">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="X36">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="Y36">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="Z36">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="AB36">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="AC36">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="AD36">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="AE36">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="AF36">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="AG36">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="AH36">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="AI36">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="37" spans="1:60" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="D37" s="3">
-        <v>8</v>
-      </c>
-      <c r="M37" s="3">
-        <v>9</v>
-      </c>
-      <c r="V37" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>11</v>
-      </c>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="6"/>
-      <c r="AT37" s="6"/>
-      <c r="AU37" s="6"/>
-      <c r="AV37" s="6"/>
-      <c r="AW37" s="6"/>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="6"/>
-      <c r="AZ37" s="6"/>
-      <c r="BA37" s="6"/>
-      <c r="BB37" s="6"/>
-      <c r="BC37" s="6"/>
-      <c r="BD37" s="6"/>
-      <c r="BE37" s="6"/>
-      <c r="BF37" s="6"/>
-      <c r="BG37" s="6"/>
-      <c r="BH37" s="6"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>303</v>
+      </c>
+      <c r="B37">
+        <v>302</v>
+      </c>
+      <c r="C37">
+        <v>301</v>
+      </c>
+      <c r="D37">
+        <v>300</v>
+      </c>
+      <c r="E37">
+        <v>299</v>
+      </c>
+      <c r="F37">
+        <v>298</v>
+      </c>
+      <c r="G37">
+        <v>297</v>
+      </c>
+      <c r="H37">
+        <v>296</v>
+      </c>
+      <c r="J37">
+        <v>367</v>
+      </c>
+      <c r="K37">
+        <v>366</v>
+      </c>
+      <c r="L37">
+        <v>365</v>
+      </c>
+      <c r="M37">
+        <v>364</v>
+      </c>
+      <c r="N37">
+        <v>363</v>
+      </c>
+      <c r="O37">
+        <v>362</v>
+      </c>
+      <c r="P37">
+        <v>361</v>
+      </c>
+      <c r="Q37">
+        <v>360</v>
+      </c>
+      <c r="S37">
+        <v>431</v>
+      </c>
+      <c r="T37">
+        <v>430</v>
+      </c>
+      <c r="U37">
+        <v>429</v>
+      </c>
+      <c r="V37">
+        <v>428</v>
+      </c>
+      <c r="W37">
+        <v>427</v>
+      </c>
+      <c r="X37">
+        <v>426</v>
+      </c>
+      <c r="Y37">
+        <v>425</v>
+      </c>
+      <c r="Z37">
+        <v>424</v>
+      </c>
+      <c r="AB37">
+        <v>495</v>
+      </c>
+      <c r="AC37">
+        <v>494</v>
+      </c>
+      <c r="AD37">
+        <v>493</v>
+      </c>
+      <c r="AE37">
+        <v>492</v>
+      </c>
+      <c r="AF37">
+        <v>491</v>
+      </c>
+      <c r="AG37">
+        <v>490</v>
+      </c>
+      <c r="AH37">
+        <v>489</v>
+      </c>
+      <c r="AI37">
+        <v>488</v>
+      </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>512</v>
+        <v>304</v>
       </c>
       <c r="B38">
-        <v>513</v>
+        <v>305</v>
       </c>
       <c r="C38">
-        <v>514</v>
+        <v>306</v>
       </c>
       <c r="D38">
-        <v>515</v>
+        <v>307</v>
       </c>
       <c r="E38">
-        <v>516</v>
+        <v>308</v>
       </c>
       <c r="F38">
-        <v>517</v>
+        <v>309</v>
       </c>
       <c r="G38">
-        <v>518</v>
+        <v>310</v>
       </c>
       <c r="H38">
-        <v>519</v>
+        <v>311</v>
       </c>
       <c r="J38">
-        <v>576</v>
+        <v>368</v>
       </c>
       <c r="K38">
-        <v>577</v>
+        <v>369</v>
       </c>
       <c r="L38">
-        <v>578</v>
+        <v>370</v>
       </c>
       <c r="M38">
-        <v>579</v>
+        <v>371</v>
       </c>
       <c r="N38">
-        <v>580</v>
+        <v>372</v>
       </c>
       <c r="O38">
-        <v>581</v>
+        <v>373</v>
       </c>
       <c r="P38">
-        <v>582</v>
+        <v>374</v>
       </c>
       <c r="Q38">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="S38">
-        <v>640</v>
+        <v>432</v>
       </c>
       <c r="T38">
-        <v>641</v>
+        <v>433</v>
       </c>
       <c r="U38">
-        <v>642</v>
+        <v>434</v>
       </c>
       <c r="V38">
-        <v>643</v>
+        <v>435</v>
       </c>
       <c r="W38">
-        <v>644</v>
+        <v>436</v>
       </c>
       <c r="X38">
-        <v>645</v>
+        <v>437</v>
       </c>
       <c r="Y38">
-        <v>646</v>
+        <v>438</v>
       </c>
       <c r="Z38">
-        <v>647</v>
+        <v>439</v>
       </c>
       <c r="AB38">
-        <v>704</v>
+        <v>496</v>
       </c>
       <c r="AC38">
-        <v>705</v>
+        <v>497</v>
       </c>
       <c r="AD38">
-        <v>706</v>
+        <v>498</v>
       </c>
       <c r="AE38">
-        <v>707</v>
+        <v>499</v>
       </c>
       <c r="AF38">
-        <v>708</v>
+        <v>500</v>
       </c>
       <c r="AG38">
-        <v>709</v>
+        <v>501</v>
       </c>
       <c r="AH38">
-        <v>710</v>
+        <v>502</v>
       </c>
       <c r="AI38">
-        <v>711</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>527</v>
+        <v>319</v>
       </c>
       <c r="B39">
-        <v>526</v>
+        <v>318</v>
       </c>
       <c r="C39">
-        <v>525</v>
+        <v>317</v>
       </c>
       <c r="D39">
-        <v>524</v>
+        <v>316</v>
       </c>
       <c r="E39">
-        <v>523</v>
+        <v>315</v>
       </c>
       <c r="F39">
-        <v>522</v>
+        <v>314</v>
       </c>
       <c r="G39">
-        <v>521</v>
+        <v>313</v>
       </c>
       <c r="H39">
-        <v>520</v>
+        <v>312</v>
       </c>
       <c r="J39">
-        <v>591</v>
+        <v>383</v>
       </c>
       <c r="K39">
-        <v>590</v>
+        <v>382</v>
       </c>
       <c r="L39">
-        <v>589</v>
+        <v>381</v>
       </c>
       <c r="M39">
-        <v>588</v>
+        <v>380</v>
       </c>
       <c r="N39">
-        <v>587</v>
+        <v>379</v>
       </c>
       <c r="O39">
-        <v>586</v>
+        <v>378</v>
       </c>
       <c r="P39">
-        <v>585</v>
+        <v>377</v>
       </c>
       <c r="Q39">
-        <v>584</v>
+        <v>376</v>
       </c>
       <c r="S39">
-        <v>655</v>
+        <v>447</v>
       </c>
       <c r="T39">
-        <v>654</v>
+        <v>446</v>
       </c>
       <c r="U39">
-        <v>653</v>
+        <v>445</v>
       </c>
       <c r="V39">
-        <v>652</v>
+        <v>444</v>
       </c>
       <c r="W39">
-        <v>651</v>
+        <v>443</v>
       </c>
       <c r="X39">
-        <v>650</v>
+        <v>442</v>
       </c>
       <c r="Y39">
-        <v>649</v>
+        <v>441</v>
       </c>
       <c r="Z39">
-        <v>648</v>
+        <v>440</v>
       </c>
       <c r="AB39">
-        <v>719</v>
+        <v>511</v>
       </c>
       <c r="AC39">
-        <v>718</v>
+        <v>510</v>
       </c>
       <c r="AD39">
-        <v>717</v>
+        <v>509</v>
       </c>
       <c r="AE39">
-        <v>716</v>
+        <v>508</v>
       </c>
       <c r="AF39">
-        <v>715</v>
+        <v>507</v>
       </c>
       <c r="AG39">
-        <v>714</v>
+        <v>506</v>
       </c>
       <c r="AH39">
-        <v>713</v>
+        <v>505</v>
       </c>
       <c r="AI39">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>528</v>
-      </c>
-      <c r="B40">
-        <v>529</v>
-      </c>
-      <c r="C40">
-        <v>530</v>
-      </c>
-      <c r="D40">
-        <v>531</v>
-      </c>
-      <c r="E40">
-        <v>532</v>
-      </c>
-      <c r="F40">
-        <v>533</v>
-      </c>
-      <c r="G40">
-        <v>534</v>
-      </c>
-      <c r="H40">
-        <v>535</v>
-      </c>
-      <c r="J40">
-        <v>592</v>
-      </c>
-      <c r="K40">
-        <v>593</v>
-      </c>
-      <c r="L40">
-        <v>594</v>
-      </c>
-      <c r="M40">
-        <v>595</v>
-      </c>
-      <c r="N40">
-        <v>596</v>
-      </c>
-      <c r="O40">
-        <v>597</v>
-      </c>
-      <c r="P40">
-        <v>598</v>
-      </c>
-      <c r="Q40">
-        <v>599</v>
-      </c>
-      <c r="S40">
-        <v>656</v>
-      </c>
-      <c r="T40">
-        <v>657</v>
-      </c>
-      <c r="U40">
-        <v>658</v>
-      </c>
-      <c r="V40">
-        <v>659</v>
-      </c>
-      <c r="W40">
-        <v>660</v>
-      </c>
-      <c r="X40">
-        <v>661</v>
-      </c>
-      <c r="Y40">
-        <v>662</v>
-      </c>
-      <c r="Z40">
-        <v>663</v>
-      </c>
-      <c r="AB40">
-        <v>720</v>
-      </c>
-      <c r="AC40">
-        <v>721</v>
-      </c>
-      <c r="AD40">
-        <v>722</v>
-      </c>
-      <c r="AE40">
-        <v>723</v>
-      </c>
-      <c r="AF40">
-        <v>724</v>
-      </c>
-      <c r="AG40">
-        <v>725</v>
-      </c>
-      <c r="AH40">
-        <v>726</v>
-      </c>
-      <c r="AI40">
-        <v>727</v>
-      </c>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D40" s="3">
+        <v>8</v>
+      </c>
+      <c r="M40" s="3">
+        <v>9</v>
+      </c>
+      <c r="V40" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>11</v>
+      </c>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="6"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6"/>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="B41">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="C41">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="D41">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="E41">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="F41">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="G41">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="H41">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="J41">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="K41">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="L41">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="M41">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="N41">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="O41">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="P41">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="Q41">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="S41">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="T41">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="U41">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="V41">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="W41">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="X41">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="Y41">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="Z41">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="AB41">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="AC41">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="AD41">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="AE41">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="AF41">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="AG41">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="AH41">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="AI41">
-        <v>728</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="B42">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C42">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="D42">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="E42">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="F42">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="G42">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="H42">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="J42">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="K42">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="L42">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="M42">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="N42">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="O42">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="P42">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="Q42">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="S42">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="T42">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="U42">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="V42">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="W42">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="X42">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="Y42">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="Z42">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="AB42">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="AC42">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="AD42">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="AE42">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="AF42">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="AG42">
-        <v>741</v>
+        <v>714</v>
       </c>
       <c r="AH42">
-        <v>742</v>
+        <v>713</v>
       </c>
       <c r="AI42">
-        <v>743</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="B43">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="C43">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="D43">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E43">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="F43">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="G43">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="H43">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="J43">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="K43">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="L43">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="M43">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="N43">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="O43">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="P43">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="Q43">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="S43">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="T43">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="U43">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="V43">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="W43">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="X43">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="Y43">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="Z43">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="AB43">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="AC43">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="AD43">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="AE43">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="AF43">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="AG43">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="AH43">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="AI43">
-        <v>744</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B44">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="C44">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="D44">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="E44">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="F44">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="G44">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="H44">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="J44">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="K44">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="L44">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="M44">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="N44">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="O44">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="P44">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="Q44">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="S44">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="T44">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="U44">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="V44">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="W44">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="X44">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="Y44">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="Z44">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="AB44">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="AC44">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="AD44">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="AE44">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="AF44">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="AG44">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="AH44">
-        <v>758</v>
+        <v>729</v>
       </c>
       <c r="AI44">
-        <v>759</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="B45">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="C45">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="D45">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="E45">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="F45">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="G45">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="H45">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="J45">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="K45">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="L45">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="M45">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="N45">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="O45">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="P45">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="Q45">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="S45">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="T45">
-        <v>702</v>
+        <v>673</v>
       </c>
       <c r="U45">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="V45">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="W45">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="X45">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="Y45">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="Z45">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="AB45">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="AC45">
-        <v>766</v>
+        <v>737</v>
       </c>
       <c r="AD45">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="AE45">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="AF45">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="AG45">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="AH45">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="AI45">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="46" spans="1:60" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="D46" s="4">
-        <v>12</v>
-      </c>
-      <c r="N46" s="4">
-        <v>13</v>
-      </c>
-      <c r="V46" s="4">
-        <v>14</v>
-      </c>
-      <c r="AE46" s="4">
-        <v>15</v>
-      </c>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="5"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="5"/>
-      <c r="AW46" s="5"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="5"/>
-      <c r="AZ46" s="5"/>
-      <c r="BA46" s="5"/>
-      <c r="BB46" s="5"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="5"/>
-      <c r="BE46" s="5"/>
-      <c r="BF46" s="5"/>
-      <c r="BG46" s="5"/>
-      <c r="BH46" s="5"/>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>559</v>
+      </c>
+      <c r="B46">
+        <v>558</v>
+      </c>
+      <c r="C46">
+        <v>557</v>
+      </c>
+      <c r="D46">
+        <v>556</v>
+      </c>
+      <c r="E46">
+        <v>555</v>
+      </c>
+      <c r="F46">
+        <v>554</v>
+      </c>
+      <c r="G46">
+        <v>553</v>
+      </c>
+      <c r="H46">
+        <v>552</v>
+      </c>
+      <c r="J46">
+        <v>623</v>
+      </c>
+      <c r="K46">
+        <v>622</v>
+      </c>
+      <c r="L46">
+        <v>621</v>
+      </c>
+      <c r="M46">
+        <v>620</v>
+      </c>
+      <c r="N46">
+        <v>619</v>
+      </c>
+      <c r="O46">
+        <v>618</v>
+      </c>
+      <c r="P46">
+        <v>617</v>
+      </c>
+      <c r="Q46">
+        <v>616</v>
+      </c>
+      <c r="S46">
+        <v>687</v>
+      </c>
+      <c r="T46">
+        <v>686</v>
+      </c>
+      <c r="U46">
+        <v>685</v>
+      </c>
+      <c r="V46">
+        <v>684</v>
+      </c>
+      <c r="W46">
+        <v>683</v>
+      </c>
+      <c r="X46">
+        <v>682</v>
+      </c>
+      <c r="Y46">
+        <v>681</v>
+      </c>
+      <c r="Z46">
+        <v>680</v>
+      </c>
+      <c r="AB46">
+        <v>751</v>
+      </c>
+      <c r="AC46">
+        <v>750</v>
+      </c>
+      <c r="AD46">
+        <v>749</v>
+      </c>
+      <c r="AE46">
+        <v>748</v>
+      </c>
+      <c r="AF46">
+        <v>747</v>
+      </c>
+      <c r="AG46">
+        <v>746</v>
+      </c>
+      <c r="AH46">
+        <v>745</v>
+      </c>
+      <c r="AI46">
+        <v>744</v>
+      </c>
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>768</v>
+        <v>560</v>
       </c>
       <c r="B47">
-        <v>769</v>
+        <v>561</v>
       </c>
       <c r="C47">
-        <v>770</v>
+        <v>562</v>
       </c>
       <c r="D47">
-        <v>771</v>
+        <v>563</v>
       </c>
       <c r="E47">
-        <v>772</v>
+        <v>564</v>
       </c>
       <c r="F47">
-        <v>773</v>
+        <v>565</v>
       </c>
       <c r="G47">
-        <v>774</v>
+        <v>566</v>
       </c>
       <c r="H47">
-        <v>775</v>
+        <v>567</v>
       </c>
       <c r="J47">
-        <v>832</v>
+        <v>624</v>
       </c>
       <c r="K47">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="L47">
-        <v>834</v>
+        <v>626</v>
       </c>
       <c r="M47">
-        <v>835</v>
+        <v>627</v>
       </c>
       <c r="N47">
-        <v>836</v>
+        <v>628</v>
       </c>
       <c r="O47">
-        <v>837</v>
+        <v>629</v>
       </c>
       <c r="P47">
-        <v>838</v>
+        <v>630</v>
       </c>
       <c r="Q47">
-        <v>839</v>
+        <v>631</v>
       </c>
       <c r="S47">
-        <v>896</v>
+        <v>688</v>
       </c>
       <c r="T47">
-        <v>897</v>
+        <v>689</v>
       </c>
       <c r="U47">
-        <v>898</v>
+        <v>690</v>
       </c>
       <c r="V47">
-        <v>899</v>
+        <v>691</v>
       </c>
       <c r="W47">
-        <v>900</v>
+        <v>692</v>
       </c>
       <c r="X47">
-        <v>901</v>
+        <v>693</v>
       </c>
       <c r="Y47">
-        <v>902</v>
+        <v>694</v>
       </c>
       <c r="Z47">
-        <v>903</v>
+        <v>695</v>
       </c>
       <c r="AB47">
-        <v>960</v>
+        <v>752</v>
       </c>
       <c r="AC47">
-        <v>961</v>
+        <v>753</v>
       </c>
       <c r="AD47">
-        <v>962</v>
+        <v>754</v>
       </c>
       <c r="AE47">
-        <v>963</v>
+        <v>755</v>
       </c>
       <c r="AF47">
-        <v>964</v>
+        <v>756</v>
       </c>
       <c r="AG47">
-        <v>965</v>
+        <v>757</v>
       </c>
       <c r="AH47">
-        <v>966</v>
+        <v>758</v>
       </c>
       <c r="AI47">
-        <v>967</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>783</v>
+        <v>575</v>
       </c>
       <c r="B48">
-        <v>782</v>
+        <v>574</v>
       </c>
       <c r="C48">
-        <v>781</v>
+        <v>573</v>
       </c>
       <c r="D48">
-        <v>780</v>
+        <v>572</v>
       </c>
       <c r="E48">
-        <v>779</v>
+        <v>571</v>
       </c>
       <c r="F48">
-        <v>778</v>
+        <v>570</v>
       </c>
       <c r="G48">
-        <v>777</v>
+        <v>569</v>
       </c>
       <c r="H48">
-        <v>776</v>
+        <v>568</v>
       </c>
       <c r="J48">
-        <v>847</v>
+        <v>639</v>
       </c>
       <c r="K48">
-        <v>846</v>
+        <v>638</v>
       </c>
       <c r="L48">
-        <v>845</v>
+        <v>637</v>
       </c>
       <c r="M48">
-        <v>844</v>
+        <v>636</v>
       </c>
       <c r="N48">
-        <v>843</v>
+        <v>635</v>
       </c>
       <c r="O48">
-        <v>842</v>
+        <v>634</v>
       </c>
       <c r="P48">
-        <v>841</v>
+        <v>633</v>
       </c>
       <c r="Q48">
-        <v>840</v>
+        <v>632</v>
       </c>
       <c r="S48">
-        <v>911</v>
+        <v>703</v>
       </c>
       <c r="T48">
-        <v>910</v>
+        <v>702</v>
       </c>
       <c r="U48">
-        <v>909</v>
+        <v>701</v>
       </c>
       <c r="V48">
-        <v>908</v>
+        <v>700</v>
       </c>
       <c r="W48">
-        <v>907</v>
+        <v>699</v>
       </c>
       <c r="X48">
-        <v>906</v>
+        <v>698</v>
       </c>
       <c r="Y48">
-        <v>905</v>
+        <v>697</v>
       </c>
       <c r="Z48">
-        <v>904</v>
+        <v>696</v>
       </c>
       <c r="AB48">
-        <v>975</v>
+        <v>767</v>
       </c>
       <c r="AC48">
-        <v>974</v>
+        <v>766</v>
       </c>
       <c r="AD48">
-        <v>973</v>
+        <v>765</v>
       </c>
       <c r="AE48">
-        <v>972</v>
+        <v>764</v>
       </c>
       <c r="AF48">
-        <v>971</v>
+        <v>763</v>
       </c>
       <c r="AG48">
-        <v>970</v>
+        <v>762</v>
       </c>
       <c r="AH48">
-        <v>969</v>
+        <v>761</v>
       </c>
       <c r="AI48">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>784</v>
-      </c>
-      <c r="B49">
-        <v>785</v>
-      </c>
-      <c r="C49">
-        <v>786</v>
-      </c>
-      <c r="D49">
-        <v>787</v>
-      </c>
-      <c r="E49">
-        <v>788</v>
-      </c>
-      <c r="F49">
-        <v>789</v>
-      </c>
-      <c r="G49">
-        <v>790</v>
-      </c>
-      <c r="H49">
-        <v>791</v>
-      </c>
-      <c r="J49">
-        <v>848</v>
-      </c>
-      <c r="K49">
-        <v>849</v>
-      </c>
-      <c r="L49">
-        <v>850</v>
-      </c>
-      <c r="M49">
-        <v>851</v>
-      </c>
-      <c r="N49">
-        <v>852</v>
-      </c>
-      <c r="O49">
-        <v>853</v>
-      </c>
-      <c r="P49">
-        <v>854</v>
-      </c>
-      <c r="Q49">
-        <v>855</v>
-      </c>
-      <c r="S49">
-        <v>912</v>
-      </c>
-      <c r="T49">
-        <v>913</v>
-      </c>
-      <c r="U49">
-        <v>914</v>
-      </c>
-      <c r="V49">
-        <v>915</v>
-      </c>
-      <c r="W49">
-        <v>916</v>
-      </c>
-      <c r="X49">
-        <v>917</v>
-      </c>
-      <c r="Y49">
-        <v>918</v>
-      </c>
-      <c r="Z49">
-        <v>919</v>
-      </c>
-      <c r="AB49">
-        <v>976</v>
-      </c>
-      <c r="AC49">
-        <v>977</v>
-      </c>
-      <c r="AD49">
-        <v>978</v>
-      </c>
-      <c r="AE49">
-        <v>979</v>
-      </c>
-      <c r="AF49">
-        <v>980</v>
-      </c>
-      <c r="AG49">
-        <v>981</v>
-      </c>
-      <c r="AH49">
-        <v>982</v>
-      </c>
-      <c r="AI49">
-        <v>983</v>
-      </c>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D49" s="4">
+        <v>12</v>
+      </c>
+      <c r="N49" s="4">
+        <v>13</v>
+      </c>
+      <c r="V49" s="4">
+        <v>14</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>15</v>
+      </c>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="B50">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="C50">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="D50">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="E50">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="F50">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="G50">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="H50">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="J50">
-        <v>863</v>
+        <v>832</v>
       </c>
       <c r="K50">
-        <v>862</v>
+        <v>833</v>
       </c>
       <c r="L50">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="M50">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="N50">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="O50">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="P50">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="Q50">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="S50">
-        <v>927</v>
+        <v>896</v>
       </c>
       <c r="T50">
-        <v>926</v>
+        <v>897</v>
       </c>
       <c r="U50">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="V50">
-        <v>924</v>
+        <v>899</v>
       </c>
       <c r="W50">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="X50">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="Y50">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="Z50">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="AB50">
-        <v>991</v>
+        <v>960</v>
       </c>
       <c r="AC50">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="AD50">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="AE50">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="AF50">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="AG50">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="AH50">
-        <v>985</v>
+        <v>966</v>
       </c>
       <c r="AI50">
-        <v>984</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="B51">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="C51">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="D51">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="E51">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="F51">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="G51">
-        <v>806</v>
+        <v>777</v>
       </c>
       <c r="H51">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="J51">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="K51">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="L51">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="M51">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="N51">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="O51">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="P51">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="Q51">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="S51">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="T51">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="U51">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="V51">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="W51">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="X51">
-        <v>933</v>
+        <v>906</v>
       </c>
       <c r="Y51">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="Z51">
-        <v>935</v>
+        <v>904</v>
       </c>
       <c r="AB51">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="AC51">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="AD51">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="AE51">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="AF51">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="AG51">
-        <v>997</v>
+        <v>970</v>
       </c>
       <c r="AH51">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="AI51">
-        <v>999</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="B52">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="C52">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="D52">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="E52">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="F52">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="G52">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="H52">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="J52">
-        <v>879</v>
+        <v>848</v>
       </c>
       <c r="K52">
-        <v>878</v>
+        <v>849</v>
       </c>
       <c r="L52">
-        <v>877</v>
+        <v>850</v>
       </c>
       <c r="M52">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="N52">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="O52">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="P52">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="Q52">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="S52">
-        <v>943</v>
+        <v>912</v>
       </c>
       <c r="T52">
-        <v>942</v>
+        <v>913</v>
       </c>
       <c r="U52">
-        <v>941</v>
+        <v>914</v>
       </c>
       <c r="V52">
-        <v>940</v>
+        <v>915</v>
       </c>
       <c r="W52">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="X52">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="Y52">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="Z52">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="AB52">
-        <v>1007</v>
+        <v>976</v>
       </c>
       <c r="AC52">
-        <v>1006</v>
+        <v>977</v>
       </c>
       <c r="AD52">
-        <v>1005</v>
+        <v>978</v>
       </c>
       <c r="AE52">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="AF52">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="AG52">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="AH52">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="AI52">
-        <v>1000</v>
+        <v>983</v>
       </c>
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="B53">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="C53">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="D53">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="E53">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="F53">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="G53">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="H53">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="J53">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="K53">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="L53">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="M53">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="N53">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="O53">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="P53">
-        <v>886</v>
+        <v>857</v>
       </c>
       <c r="Q53">
-        <v>887</v>
+        <v>856</v>
       </c>
       <c r="S53">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="T53">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="U53">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="V53">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="W53">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="X53">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="Y53">
-        <v>950</v>
+        <v>921</v>
       </c>
       <c r="Z53">
-        <v>951</v>
+        <v>920</v>
       </c>
       <c r="AB53">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="AC53">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="AD53">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="AE53">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="AF53">
-        <v>1012</v>
+        <v>987</v>
       </c>
       <c r="AG53">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="AH53">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="AI53">
-        <v>1015</v>
+        <v>984</v>
       </c>
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="B54">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="C54">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="D54">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="E54">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="F54">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="G54">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="H54">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="J54">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="K54">
-        <v>894</v>
+        <v>865</v>
       </c>
       <c r="L54">
-        <v>893</v>
+        <v>866</v>
       </c>
       <c r="M54">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="N54">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="O54">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="P54">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="Q54">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="S54">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="T54">
-        <v>958</v>
+        <v>929</v>
       </c>
       <c r="U54">
-        <v>957</v>
+        <v>930</v>
       </c>
       <c r="V54">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="W54">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="X54">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="Y54">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="Z54">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="AB54">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="AC54">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="AD54">
-        <v>1021</v>
+        <v>994</v>
       </c>
       <c r="AE54">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="AF54">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="AG54">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="AH54">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="AI54">
-        <v>1016</v>
+        <v>999</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>815</v>
+      </c>
+      <c r="B55">
+        <v>814</v>
+      </c>
+      <c r="C55">
+        <v>813</v>
+      </c>
+      <c r="D55">
+        <v>812</v>
+      </c>
+      <c r="E55">
+        <v>811</v>
+      </c>
+      <c r="F55">
+        <v>810</v>
+      </c>
+      <c r="G55">
+        <v>809</v>
+      </c>
+      <c r="H55">
+        <v>808</v>
+      </c>
+      <c r="J55">
+        <v>879</v>
+      </c>
+      <c r="K55">
+        <v>878</v>
+      </c>
+      <c r="L55">
+        <v>877</v>
+      </c>
+      <c r="M55">
+        <v>876</v>
+      </c>
+      <c r="N55">
+        <v>875</v>
+      </c>
+      <c r="O55">
+        <v>874</v>
+      </c>
+      <c r="P55">
+        <v>873</v>
+      </c>
+      <c r="Q55">
+        <v>872</v>
+      </c>
+      <c r="S55">
+        <v>943</v>
+      </c>
+      <c r="T55">
+        <v>942</v>
+      </c>
+      <c r="U55">
+        <v>941</v>
+      </c>
+      <c r="V55">
+        <v>940</v>
+      </c>
+      <c r="W55">
+        <v>939</v>
+      </c>
+      <c r="X55">
+        <v>938</v>
+      </c>
+      <c r="Y55">
+        <v>937</v>
+      </c>
+      <c r="Z55">
+        <v>936</v>
+      </c>
+      <c r="AB55">
+        <v>1007</v>
+      </c>
+      <c r="AC55">
+        <v>1006</v>
+      </c>
+      <c r="AD55">
+        <v>1005</v>
+      </c>
+      <c r="AE55">
+        <v>1004</v>
+      </c>
+      <c r="AF55">
+        <v>1003</v>
+      </c>
+      <c r="AG55">
+        <v>1002</v>
+      </c>
+      <c r="AH55">
+        <v>1001</v>
+      </c>
+      <c r="AI55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>816</v>
+      </c>
+      <c r="B56">
+        <v>817</v>
+      </c>
+      <c r="C56">
+        <v>818</v>
+      </c>
+      <c r="D56">
+        <v>819</v>
+      </c>
+      <c r="E56">
+        <v>820</v>
+      </c>
+      <c r="F56">
+        <v>821</v>
+      </c>
+      <c r="G56">
+        <v>822</v>
+      </c>
+      <c r="H56">
+        <v>823</v>
+      </c>
+      <c r="J56">
+        <v>880</v>
+      </c>
+      <c r="K56">
+        <v>881</v>
+      </c>
+      <c r="L56">
+        <v>882</v>
+      </c>
+      <c r="M56">
+        <v>883</v>
+      </c>
+      <c r="N56">
+        <v>884</v>
+      </c>
+      <c r="O56">
+        <v>885</v>
+      </c>
+      <c r="P56">
+        <v>886</v>
+      </c>
+      <c r="Q56">
+        <v>887</v>
+      </c>
+      <c r="S56">
+        <v>944</v>
+      </c>
+      <c r="T56">
+        <v>945</v>
+      </c>
+      <c r="U56">
+        <v>946</v>
+      </c>
+      <c r="V56">
+        <v>947</v>
+      </c>
+      <c r="W56">
+        <v>948</v>
+      </c>
+      <c r="X56">
+        <v>949</v>
+      </c>
+      <c r="Y56">
+        <v>950</v>
+      </c>
+      <c r="Z56">
+        <v>951</v>
+      </c>
+      <c r="AB56">
+        <v>1008</v>
+      </c>
+      <c r="AC56">
+        <v>1009</v>
+      </c>
+      <c r="AD56">
+        <v>1010</v>
+      </c>
+      <c r="AE56">
+        <v>1011</v>
+      </c>
+      <c r="AF56">
+        <v>1012</v>
+      </c>
+      <c r="AG56">
+        <v>1013</v>
+      </c>
+      <c r="AH56">
+        <v>1014</v>
+      </c>
+      <c r="AI56">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>831</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>830</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>829</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>828</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>827</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <v>826</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <v>825</v>
       </c>
-      <c r="H55">
+      <c r="H57">
         <v>824</v>
       </c>
-      <c r="J55">
+      <c r="J57">
         <v>895</v>
       </c>
-      <c r="K55">
+      <c r="K57">
         <v>894</v>
       </c>
-      <c r="L55">
+      <c r="L57">
         <v>893</v>
       </c>
-      <c r="M55">
+      <c r="M57">
         <v>892</v>
       </c>
-      <c r="N55">
+      <c r="N57">
         <v>891</v>
       </c>
-      <c r="O55">
+      <c r="O57">
         <v>890</v>
       </c>
-      <c r="P55">
+      <c r="P57">
         <v>889</v>
       </c>
-      <c r="Q55">
+      <c r="Q57">
         <v>888</v>
       </c>
-      <c r="S55">
+      <c r="S57">
         <v>959</v>
       </c>
-      <c r="T55">
+      <c r="T57">
         <v>958</v>
       </c>
-      <c r="U55">
+      <c r="U57">
         <v>957</v>
       </c>
-      <c r="V55">
+      <c r="V57">
         <v>956</v>
       </c>
-      <c r="W55">
+      <c r="W57">
         <v>955</v>
       </c>
-      <c r="X55">
+      <c r="X57">
         <v>954</v>
       </c>
-      <c r="Y55">
+      <c r="Y57">
         <v>953</v>
       </c>
-      <c r="Z55">
+      <c r="Z57">
         <v>952</v>
       </c>
-      <c r="AB55">
+      <c r="AB57">
         <v>1023</v>
       </c>
-      <c r="AC55">
+      <c r="AC57">
         <v>1022</v>
       </c>
-      <c r="AD55">
+      <c r="AD57">
         <v>1021</v>
       </c>
-      <c r="AE55">
+      <c r="AE57">
         <v>1020</v>
       </c>
-      <c r="AF55">
+      <c r="AF57">
         <v>1019</v>
       </c>
-      <c r="AG55">
+      <c r="AG57">
         <v>1018</v>
       </c>
-      <c r="AH55">
+      <c r="AH57">
         <v>1017</v>
       </c>
-      <c r="AI55">
+      <c r="AI57">
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-    </row>
-    <row r="57" spans="1:60" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>831</v>
+      </c>
+      <c r="B58">
+        <v>830</v>
+      </c>
+      <c r="C58">
+        <v>829</v>
+      </c>
+      <c r="D58">
+        <v>828</v>
+      </c>
+      <c r="E58">
+        <v>827</v>
+      </c>
+      <c r="F58">
+        <v>826</v>
+      </c>
+      <c r="G58">
+        <v>825</v>
+      </c>
+      <c r="H58">
+        <v>824</v>
+      </c>
+      <c r="J58">
+        <v>895</v>
+      </c>
+      <c r="K58">
+        <v>894</v>
+      </c>
+      <c r="L58">
+        <v>893</v>
+      </c>
+      <c r="M58">
+        <v>892</v>
+      </c>
+      <c r="N58">
+        <v>891</v>
+      </c>
+      <c r="O58">
+        <v>890</v>
+      </c>
+      <c r="P58">
+        <v>889</v>
+      </c>
+      <c r="Q58">
+        <v>888</v>
+      </c>
+      <c r="S58">
+        <v>959</v>
+      </c>
+      <c r="T58">
+        <v>958</v>
+      </c>
+      <c r="U58">
+        <v>957</v>
+      </c>
+      <c r="V58">
+        <v>956</v>
+      </c>
+      <c r="W58">
+        <v>955</v>
+      </c>
+      <c r="X58">
+        <v>954</v>
+      </c>
+      <c r="Y58">
+        <v>953</v>
+      </c>
+      <c r="Z58">
+        <v>952</v>
+      </c>
+      <c r="AB58">
+        <v>1023</v>
+      </c>
+      <c r="AC58">
+        <v>1022</v>
+      </c>
+      <c r="AD58">
+        <v>1021</v>
+      </c>
+      <c r="AE58">
+        <v>1020</v>
+      </c>
+      <c r="AF58">
+        <v>1019</v>
+      </c>
+      <c r="AG58">
+        <v>1018</v>
+      </c>
+      <c r="AH58">
+        <v>1017</v>
+      </c>
+      <c r="AI58">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+    </row>
+    <row r="60" spans="1:60" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4830,6 +5007,9 @@
     <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
